--- a/public/plantillas/Egresados_Postgrado_Plantilla_Carga_Datos.xlsx
+++ b/public/plantillas/Egresados_Postgrado_Plantilla_Carga_Datos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
   <si>
     <t>N°</t>
   </si>
@@ -465,12 +465,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Alumno Egresado sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Alumno Egresado en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -610,13 +604,22 @@
   <si>
     <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
 El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna Y, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Alumno Egresado sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Nota: Se debe de llenar la Hoja1 del Excel con las siguientes instrucciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -709,6 +712,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -808,7 +818,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,6 +891,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -1232,10 +1243,10 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
         <v>157</v>
-      </c>
-      <c r="D1" t="s">
-        <v>158</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1315,10 +1326,10 @@
         <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
@@ -1401,7 +1412,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1429,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1429,6 +1440,11 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>36</v>
@@ -1525,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>50</v>
@@ -1537,7 +1553,7 @@
         <v>77</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>72</v>
@@ -1546,7 +1562,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="93" x14ac:dyDescent="0.35">
@@ -1554,10 +1570,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>50</v>
@@ -1569,13 +1585,13 @@
         <v>68</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="106.5" x14ac:dyDescent="0.35">
@@ -1604,7 +1620,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1633,7 +1649,7 @@
         <v>59</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1662,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1691,7 +1707,7 @@
         <v>61</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1747,7 +1763,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1776,7 +1792,7 @@
         <v>67</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1805,7 +1821,7 @@
         <v>70</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1834,7 +1850,7 @@
         <v>72</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1845,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>54</v>
@@ -1863,7 +1879,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1874,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>86</v>
@@ -1892,7 +1908,7 @@
         <v>76</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1903,7 +1919,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>50</v>
@@ -1921,7 +1937,7 @@
         <v>79</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1932,7 +1948,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>50</v>
@@ -1950,7 +1966,7 @@
         <v>82</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1961,7 +1977,7 @@
         <v>113</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>50</v>
@@ -1979,7 +1995,7 @@
         <v>84</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2008,7 +2024,7 @@
         <v>85</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2037,7 +2053,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2066,7 +2082,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2095,7 +2111,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2106,7 +2122,7 @@
         <v>115</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>50</v>
@@ -2124,7 +2140,7 @@
         <v>96</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2135,7 +2151,7 @@
         <v>127</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>50</v>
@@ -2153,7 +2169,7 @@
         <v>99</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2164,7 +2180,7 @@
         <v>116</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>50</v>
@@ -2182,7 +2198,7 @@
         <v>102</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2193,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>46</v>
@@ -2245,6 +2261,6 @@
     <hyperlink ref="G30" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>